--- a/SudokuExcelSolved.xlsx
+++ b/SudokuExcelSolved.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -504,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -514,97 +514,262 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="A1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="I2" s="5" t="n"/>
+      <c r="A2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="7" t="n"/>
-      <c r="C3" s="8" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="7" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="n"/>
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="3" t="n"/>
+      <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="F5" s="5" t="n"/>
+      <c r="A5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="G5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="8" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="n"/>
+      <c r="A6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="3" t="n"/>
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="I8" s="5" t="n"/>
+      <c r="A8" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="n"/>
+      <c r="A9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="7" t="n"/>
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>8</v>
+      </c>
       <c r="I9" s="8" t="n">
         <v>6</v>
       </c>
